--- a/Examples/Data/Charts/SettingChartsAppearance/ApplyingThemes/output.xlsx
+++ b/Examples/Data/Charts/SettingChartsAppearance/ApplyingThemes/output.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Evaluation Warning" sheetId="3" r:id="rId3"/>
-    <sheet name="Evaluation Warning (0)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Evaluation Warning" sheetId="3" r:id="rId4"/>
+    <sheet name="Evaluation Warning (1)" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
@@ -18,18 +18,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2013 Aspose Pty Ltd.</t>
+  </si>
+  <si>
+    <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2016 Aspose Pty Ltd.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -76,31 +85,31 @@
       <alignment vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection/>
     </xf>
@@ -182,7 +191,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
@@ -192,10 +201,11 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c:style val="102"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
       <c:style val="2"/>
@@ -229,12 +239,13 @@
                 <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:ln w="3175">
+            <a:ln w="3175" cap="flat" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000080"/>
               </a:solidFill>
               <a:prstDash val="sysDash"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
@@ -244,22 +255,41 @@
               <a:solidFill>
                 <a:srgbClr val="00FFFF"/>
               </a:solidFill>
-              <a:ln w="12700">
+              <a:ln w="12700" cap="flat" cmpd="sng">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:delete val="1"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet2!$A$1:$A$3</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -282,97 +312,151 @@
               </a:gsLst>
               <a:lin ang="5400000" scaled="1"/>
             </a:gradFill>
-            <a:ln w="25400">
+            <a:ln w="25400" cap="flat" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="FF00FF"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:delete val="1"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet2!$B$1:$B$3</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="57352375"/>
-        <c:axId val="2637164"/>
+        <c:axId val="15368010"/>
+        <c:axId val="4094363"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57352375"/>
+        <c:axId val="15368010"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:delete val="0"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="3175">
+          <a:ln w="3175" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="2637164"/>
+        <c:txPr>
+          <a:bodyPr vert="horz" rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4094363"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2637164"/>
+        <c:axId val="4094363"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="3175">
+            <a:ln w="3175" cap="flat" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:delete val="0"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="3175">
+          <a:ln w="3175" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="57352375"/>
+        <c:txPr>
+          <a:bodyPr vert="horz" rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15368010"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:dispUnits/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="0000FF"/>
         </a:solidFill>
-        <a:ln w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="808080"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -392,15 +476,16 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="3175">
+        <a:ln w="3175" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0"/>
+        <a:bodyPr vert="horz" rot="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
@@ -418,20 +503,22 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
       <a:srgbClr val="FFFF00"/>
     </a:solidFill>
-    <a:ln w="3175">
+    <a:ln w="3175" cap="flat" cmpd="sng">
       <a:solidFill>
         <a:srgbClr val="000000"/>
       </a:solidFill>
       <a:prstDash val="solid"/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
   <c:txPr>
-    <a:bodyPr rot="0"/>
+    <a:bodyPr vert="horz" rot="0"/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
@@ -450,7 +537,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -855,26 +942,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
-  <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1">
@@ -901,20 +988,20 @@
       </c>
     </row>
   </sheetData>
-  <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" ht="23.25" customHeight="1">
       <c r="A5" s="1" t="s">
@@ -922,28 +1009,27 @@
       </c>
     </row>
   </sheetData>
-  <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" ht="23.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>